--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D5FA63-C438-4F33-A065-189E9D390298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C31B2-EFF8-4589-97AF-D29CEB961B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>inprogress</t>
+  </si>
+  <si>
+    <t>loops</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +423,20 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C31B2-EFF8-4589-97AF-D29CEB961B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AAAC1F-55E0-4FD8-A489-1F870688D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="python" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablaeu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -48,10 +49,34 @@
     <t>practice</t>
   </si>
   <si>
+    <t>loops</t>
+  </si>
+  <si>
+    <t>Dataiku vidoes 1</t>
+  </si>
+  <si>
+    <t>Dataiku vidoes 2</t>
+  </si>
+  <si>
+    <t>tableau introduction</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>inprogress</t>
   </si>
   <si>
-    <t>loops</t>
+    <t>tableau dashboatd creation</t>
+  </si>
+  <si>
+    <t>tableau filters</t>
+  </si>
+  <si>
+    <t>tablaue jons</t>
   </si>
 </sst>
 </file>
@@ -87,9 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,13 +462,125 @@
         <v>45665</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6EA846-E31A-4F9F-810A-B75AF0D4B89D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AAAC1F-55E0-4FD8-A489-1F870688D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E580C4BC-0E11-4F55-85F8-847545DCB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>tablaue jons</t>
+  </si>
+  <si>
+    <t>project work,dataiku instalation,dataiku video2</t>
+  </si>
+  <si>
+    <t>pongal holidays</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -121,6 +127,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
@@ -501,6 +509,49 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45668</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45669</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45670</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45671</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45672</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E580C4BC-0E11-4F55-85F8-847545DCB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD297977-A5FC-46E4-A785-D2C2832E498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,36 @@
   </si>
   <si>
     <t>pongal holidays</t>
+  </si>
+  <si>
+    <t>dataiku recepes practice</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday-client holiday</t>
+  </si>
+  <si>
+    <t>dataiku recepes group, join recepes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter, sync, distinct recepes </t>
+  </si>
+  <si>
+    <t>python ,add recepes</t>
+  </si>
+  <si>
+    <t>split , prepare recepes</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>parameters configurations ,formatt recepe</t>
   </si>
 </sst>
 </file>
@@ -118,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -127,8 +157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,36 +541,32 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>45668</v>
       </c>
-      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>45669</v>
       </c>
-      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>45670</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>45671</v>
       </c>
-      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>45672</v>
       </c>
-      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -553,6 +577,117 @@
       </c>
       <c r="D13" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>38379</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45685</v>
       </c>
     </row>
   </sheetData>

--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD297977-A5FC-46E4-A785-D2C2832E498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5E7EA-5878-44A4-92C1-34A0392B485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,39 @@
   </si>
   <si>
     <t>parameters configurations ,formatt recepe</t>
+  </si>
+  <si>
+    <t>stack ,topn,sort,window recepe</t>
+  </si>
+  <si>
+    <t>how to upload local files to dataiku folder</t>
+  </si>
+  <si>
+    <t>how to move folder one project to another project folder</t>
+  </si>
+  <si>
+    <t>how to run python recepe individual</t>
+  </si>
+  <si>
+    <t>python code practice</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataiku options exploration,git hub team discussion,  </t>
+  </si>
+  <si>
+    <t>sql class ,variable creation,list,tuple,dict,slicing sequences,</t>
+  </si>
+  <si>
+    <t>creating multiple dictionaries</t>
+  </si>
+  <si>
+    <t>assignment 4(b), 5(a)</t>
+  </si>
+  <si>
+    <t>dictionary creation,dictionary pandas dataframe ga create.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -157,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,16 +471,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
@@ -684,10 +718,130 @@
       <c r="B24" t="s">
         <v>28</v>
       </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45685</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45690</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5E7EA-5878-44A4-92C1-34A0392B485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B43B9-2056-4D06-8CFB-BE4BBF49C8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>dictionary creation,dictionary pandas dataframe ga create.</t>
+  </si>
+  <si>
+    <t>sql practice-rename colum,colum delete,values delete</t>
+  </si>
+  <si>
+    <t>Assignment 11(append)</t>
+  </si>
+  <si>
+    <t>Assignment11(append),SQL practice</t>
+  </si>
+  <si>
+    <t>Assignment12(merges)</t>
+  </si>
+  <si>
+    <t>Day by day class</t>
+  </si>
+  <si>
+    <t>no class</t>
   </si>
 </sst>
 </file>
@@ -471,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,6 +860,278 @@
       </c>
       <c r="B37" t="s">
         <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45710</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45711</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B43B9-2056-4D06-8CFB-BE4BBF49C8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150FADF-C2B3-4BB0-92F2-374F84512345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>no class</t>
+  </si>
+  <si>
+    <t>Assignment(13)</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,23 +1102,17 @@
         <v>45721</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45722</v>
       </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45723</v>
-      </c>
-      <c r="B66" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">

--- a/Daily task.xlsx
+++ b/Daily task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150FADF-C2B3-4BB0-92F2-374F84512345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F375DB-5DC8-4772-B4E0-5DA73F39FCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Assignment(13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Friday Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python practice </t>
+  </si>
+  <si>
+    <t>Assignment(5b)</t>
   </si>
 </sst>
 </file>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,31 +1113,76 @@
       <c r="B64" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45722</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45723</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45724</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45725</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
